--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Inhbb-Acvr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Inhbb-Acvr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Inhbb</t>
+  </si>
+  <si>
+    <t>Acvr1b</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Inhbb</t>
-  </si>
-  <si>
-    <t>Acvr1b</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.8515055</v>
+        <v>2.84633</v>
       </c>
       <c r="H2">
-        <v>5.703011</v>
+        <v>5.69266</v>
       </c>
       <c r="I2">
-        <v>0.387259194802113</v>
+        <v>0.9066958542586908</v>
       </c>
       <c r="J2">
-        <v>0.3342184077626661</v>
+        <v>0.8764918033190737</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.016684</v>
+        <v>3.1456405</v>
       </c>
       <c r="N2">
-        <v>6.033367999999999</v>
+        <v>6.291281</v>
       </c>
       <c r="O2">
-        <v>0.1358466530961894</v>
+        <v>0.1231584448857264</v>
       </c>
       <c r="P2">
-        <v>0.09965128472037957</v>
+        <v>0.08851973902715565</v>
       </c>
       <c r="Q2">
-        <v>8.602091017762</v>
+        <v>8.953530924364999</v>
       </c>
       <c r="R2">
-        <v>34.408364071048</v>
+        <v>35.81412369746</v>
       </c>
       <c r="S2">
-        <v>0.05260786549459227</v>
+        <v>0.1116672513948355</v>
       </c>
       <c r="T2">
-        <v>0.03330529371074935</v>
+        <v>0.07758682568924545</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.8515055</v>
+        <v>2.84633</v>
       </c>
       <c r="H3">
-        <v>5.703011</v>
+        <v>5.69266</v>
       </c>
       <c r="I3">
-        <v>0.387259194802113</v>
+        <v>0.9066958542586908</v>
       </c>
       <c r="J3">
-        <v>0.3342184077626661</v>
+        <v>0.8764918033190737</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>12.591557</v>
       </c>
       <c r="O3">
-        <v>0.1890067455656493</v>
+        <v>0.1643286509069703</v>
       </c>
       <c r="P3">
-        <v>0.2079708765783703</v>
+        <v>0.1771660397279274</v>
       </c>
       <c r="Q3">
-        <v>11.96829801302117</v>
+        <v>11.94657547860333</v>
       </c>
       <c r="R3">
-        <v>71.80978807812701</v>
+        <v>71.67945287162</v>
       </c>
       <c r="S3">
-        <v>0.07319460009992118</v>
+        <v>0.1489961065132736</v>
       </c>
       <c r="T3">
-        <v>0.06950769523102886</v>
+        <v>0.1552845816480298</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.8515055</v>
+        <v>2.84633</v>
       </c>
       <c r="H4">
-        <v>5.703011</v>
+        <v>5.69266</v>
       </c>
       <c r="I4">
-        <v>0.387259194802113</v>
+        <v>0.9066958542586908</v>
       </c>
       <c r="J4">
-        <v>0.3342184077626661</v>
+        <v>0.8764918033190737</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.727411333333333</v>
+        <v>6.177416000000001</v>
       </c>
       <c r="N4">
-        <v>14.182234</v>
+        <v>18.532248</v>
       </c>
       <c r="O4">
-        <v>0.2128837516433035</v>
+        <v>0.241858835417526</v>
       </c>
       <c r="P4">
-        <v>0.234243599645347</v>
+        <v>0.2607528985824235</v>
       </c>
       <c r="Q4">
-        <v>13.48023941776233</v>
+        <v>17.58296448328</v>
       </c>
       <c r="R4">
-        <v>80.88143650657399</v>
+        <v>105.49778689968</v>
       </c>
       <c r="S4">
-        <v>0.08244119024783872</v>
+        <v>0.2192924033889059</v>
       </c>
       <c r="T4">
-        <v>0.07828852290206328</v>
+        <v>0.2285477782991839</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.8515055</v>
+        <v>2.84633</v>
       </c>
       <c r="H5">
-        <v>5.703011</v>
+        <v>5.69266</v>
       </c>
       <c r="I5">
-        <v>0.387259194802113</v>
+        <v>0.9066958542586908</v>
       </c>
       <c r="J5">
-        <v>0.3342184077626661</v>
+        <v>0.8764918033190737</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.058124</v>
+        <v>2.4065245</v>
       </c>
       <c r="N5">
-        <v>6.116248000000001</v>
+        <v>4.813049</v>
       </c>
       <c r="O5">
-        <v>0.1377127700989335</v>
+        <v>0.09422049817816125</v>
       </c>
       <c r="P5">
-        <v>0.1010201882047394</v>
+        <v>0.06772068222750066</v>
       </c>
       <c r="Q5">
-        <v>8.720257405682</v>
+        <v>6.849762880085001</v>
       </c>
       <c r="R5">
-        <v>34.881029622728</v>
+        <v>27.39905152034</v>
       </c>
       <c r="S5">
-        <v>0.05333053646248149</v>
+        <v>0.08542933508432733</v>
       </c>
       <c r="T5">
-        <v>0.03376280645367287</v>
+        <v>0.05935662288758</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +776,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>2</v>
       </c>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.8515055</v>
+        <v>2.84633</v>
       </c>
       <c r="H6">
-        <v>5.703011</v>
+        <v>5.69266</v>
       </c>
       <c r="I6">
-        <v>0.387259194802113</v>
+        <v>0.9066958542586908</v>
       </c>
       <c r="J6">
-        <v>0.3342184077626661</v>
+        <v>0.8764918033190737</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.237791666666666</v>
+        <v>6.172389333333332</v>
       </c>
       <c r="N6">
-        <v>6.713374999999999</v>
+        <v>18.517168</v>
       </c>
       <c r="O6">
-        <v>0.1007717441545784</v>
+        <v>0.2416620308400081</v>
       </c>
       <c r="P6">
-        <v>0.1108827513189446</v>
+        <v>0.2605407195898574</v>
       </c>
       <c r="Q6">
-        <v>6.381075245354166</v>
+        <v>17.56865693114666</v>
       </c>
       <c r="R6">
-        <v>38.28645147212499</v>
+        <v>105.41194158688</v>
       </c>
       <c r="S6">
-        <v>0.03902478450010655</v>
+        <v>0.2191139614943712</v>
       </c>
       <c r="T6">
-        <v>0.03705905659416133</v>
+        <v>0.2283618051513633</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.8515055</v>
+        <v>2.84633</v>
       </c>
       <c r="H7">
-        <v>5.703011</v>
+        <v>5.69266</v>
       </c>
       <c r="I7">
-        <v>0.387259194802113</v>
+        <v>0.9066958542586908</v>
       </c>
       <c r="J7">
-        <v>0.3342184077626661</v>
+        <v>0.8764918033190737</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.969342333333334</v>
+        <v>3.442255333333333</v>
       </c>
       <c r="N7">
-        <v>14.908027</v>
+        <v>10.326766</v>
       </c>
       <c r="O7">
-        <v>0.2237783354413461</v>
+        <v>0.134771539771608</v>
       </c>
       <c r="P7">
-        <v>0.2462312995322192</v>
+        <v>0.1452999208451354</v>
       </c>
       <c r="Q7">
-        <v>14.17010699488283</v>
+        <v>9.797794622926666</v>
       </c>
       <c r="R7">
-        <v>85.020641969297</v>
+        <v>58.78676773756</v>
       </c>
       <c r="S7">
-        <v>0.08666021799717283</v>
+        <v>0.1221967963829773</v>
       </c>
       <c r="T7">
-        <v>0.08229503287099041</v>
+        <v>0.1273541896436714</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>0.649071</v>
       </c>
       <c r="I8">
-        <v>0.02938315833856914</v>
+        <v>0.06892032720726253</v>
       </c>
       <c r="J8">
-        <v>0.03803806027113071</v>
+        <v>0.09993665725199019</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.016684</v>
+        <v>3.1456405</v>
       </c>
       <c r="N8">
-        <v>6.033367999999999</v>
+        <v>6.291281</v>
       </c>
       <c r="O8">
-        <v>0.1358466530961894</v>
+        <v>0.1231584448857264</v>
       </c>
       <c r="P8">
-        <v>0.09965128472037957</v>
+        <v>0.08851973902715565</v>
       </c>
       <c r="Q8">
-        <v>0.652680700188</v>
+        <v>0.6805813416584999</v>
       </c>
       <c r="R8">
-        <v>3.916084201127999</v>
+        <v>4.083488049951</v>
       </c>
       <c r="S8">
-        <v>0.003991603717690005</v>
+        <v>0.00848812031986187</v>
       </c>
       <c r="T8">
-        <v>0.003790541574289405</v>
+        <v>0.008846366819192474</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>0.649071</v>
       </c>
       <c r="I9">
-        <v>0.02938315833856914</v>
+        <v>0.06892032720726253</v>
       </c>
       <c r="J9">
-        <v>0.03803806027113071</v>
+        <v>0.09993665725199019</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>12.591557</v>
       </c>
       <c r="O9">
-        <v>0.1890067455656493</v>
+        <v>0.1643286509069703</v>
       </c>
       <c r="P9">
-        <v>0.2079708765783703</v>
+        <v>0.1771660397279274</v>
       </c>
       <c r="Q9">
         <v>0.908090499283</v>
       </c>
       <c r="R9">
-        <v>8.172814493547001</v>
+        <v>8.172814493547</v>
       </c>
       <c r="S9">
-        <v>0.005553615132013122</v>
+        <v>0.01132558439003641</v>
       </c>
       <c r="T9">
-        <v>0.007910808737927936</v>
+        <v>0.01770538178898236</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1045,10 +1045,10 @@
         <v>0.649071</v>
       </c>
       <c r="I10">
-        <v>0.02938315833856914</v>
+        <v>0.06892032720726253</v>
       </c>
       <c r="J10">
-        <v>0.03803806027113071</v>
+        <v>0.09993665725199019</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.727411333333333</v>
+        <v>6.177416000000001</v>
       </c>
       <c r="N10">
-        <v>14.182234</v>
+        <v>18.532248</v>
       </c>
       <c r="O10">
-        <v>0.2128837516433035</v>
+        <v>0.241858835417526</v>
       </c>
       <c r="P10">
-        <v>0.234243599645347</v>
+        <v>0.2607528985824235</v>
       </c>
       <c r="Q10">
-        <v>1.022808533846</v>
+        <v>1.336527193512</v>
       </c>
       <c r="R10">
-        <v>9.205276804613998</v>
+        <v>12.028744741608</v>
       </c>
       <c r="S10">
-        <v>0.006255196982243814</v>
+        <v>0.01666899007494335</v>
       </c>
       <c r="T10">
-        <v>0.008910172161436322</v>
+        <v>0.02605877305309461</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>0.649071</v>
       </c>
       <c r="I11">
-        <v>0.02938315833856914</v>
+        <v>0.06892032720726253</v>
       </c>
       <c r="J11">
-        <v>0.03803806027113071</v>
+        <v>0.09993665725199019</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.058124</v>
+        <v>2.4065245</v>
       </c>
       <c r="N11">
-        <v>6.116248000000001</v>
+        <v>4.813049</v>
       </c>
       <c r="O11">
-        <v>0.1377127700989335</v>
+        <v>0.09422049817816125</v>
       </c>
       <c r="P11">
-        <v>0.1010201882047394</v>
+        <v>0.06772068222750066</v>
       </c>
       <c r="Q11">
-        <v>0.661646534268</v>
+        <v>0.5206684212465</v>
       </c>
       <c r="R11">
-        <v>3.969879205608</v>
+        <v>3.124010527479</v>
       </c>
       <c r="S11">
-        <v>0.004046436129059932</v>
+        <v>0.006493707564070157</v>
       </c>
       <c r="T11">
-        <v>0.003842612007532846</v>
+        <v>0.006767778608640677</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1169,10 +1169,10 @@
         <v>0.649071</v>
       </c>
       <c r="I12">
-        <v>0.02938315833856914</v>
+        <v>0.06892032720726253</v>
       </c>
       <c r="J12">
-        <v>0.03803806027113071</v>
+        <v>0.09993665725199019</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.237791666666666</v>
+        <v>6.172389333333332</v>
       </c>
       <c r="N12">
-        <v>6.713374999999999</v>
+        <v>18.517168</v>
       </c>
       <c r="O12">
-        <v>0.1007717441545784</v>
+        <v>0.2416620308400081</v>
       </c>
       <c r="P12">
-        <v>0.1108827513189446</v>
+        <v>0.2605407195898574</v>
       </c>
       <c r="Q12">
-        <v>0.484161891625</v>
+        <v>1.335439638992</v>
       </c>
       <c r="R12">
-        <v>4.357457024624999</v>
+        <v>12.018956750928</v>
       </c>
       <c r="S12">
-        <v>0.002960992114547755</v>
+        <v>0.01665542623906493</v>
       </c>
       <c r="T12">
-        <v>0.004217764777698814</v>
+        <v>0.02603756859383847</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1231,10 +1231,10 @@
         <v>0.649071</v>
       </c>
       <c r="I13">
-        <v>0.02938315833856914</v>
+        <v>0.06892032720726253</v>
       </c>
       <c r="J13">
-        <v>0.03803806027113071</v>
+        <v>0.09993665725199019</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.969342333333334</v>
+        <v>3.442255333333333</v>
       </c>
       <c r="N13">
-        <v>14.908027</v>
+        <v>10.326766</v>
       </c>
       <c r="O13">
-        <v>0.2237783354413461</v>
+        <v>0.134771539771608</v>
       </c>
       <c r="P13">
-        <v>0.2462312995322192</v>
+        <v>0.1452999208451354</v>
       </c>
       <c r="Q13">
-        <v>1.075151999213</v>
+        <v>0.744756037154</v>
       </c>
       <c r="R13">
-        <v>9.676367992916999</v>
+        <v>6.702804334385999</v>
       </c>
       <c r="S13">
-        <v>0.006575314263014509</v>
+        <v>0.00928849861928582</v>
       </c>
       <c r="T13">
-        <v>0.009366161012245394</v>
+        <v>0.0145207883882416</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>0.5</v>
       </c>
       <c r="G14">
-        <v>2.1746685</v>
+        <v>0.0765465</v>
       </c>
       <c r="H14">
-        <v>4.349337</v>
+        <v>0.153093</v>
       </c>
       <c r="I14">
-        <v>0.2953388560083503</v>
+        <v>0.02438381853404661</v>
       </c>
       <c r="J14">
-        <v>0.2548878981582274</v>
+        <v>0.02357153942893602</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.016684</v>
+        <v>3.1456405</v>
       </c>
       <c r="N14">
-        <v>6.033367999999999</v>
+        <v>6.291281</v>
       </c>
       <c r="O14">
-        <v>0.1358466530961894</v>
+        <v>0.1231584448857264</v>
       </c>
       <c r="P14">
-        <v>0.09965128472037957</v>
+        <v>0.08851973902715565</v>
       </c>
       <c r="Q14">
-        <v>6.560287669254</v>
+        <v>0.24078777053325</v>
       </c>
       <c r="R14">
-        <v>26.241150677016</v>
+        <v>0.963151082133</v>
       </c>
       <c r="S14">
-        <v>0.04012079511799179</v>
+        <v>0.003003073171028932</v>
       </c>
       <c r="T14">
-        <v>0.02539990651114463</v>
+        <v>0.002086546518717727</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>0.5</v>
       </c>
       <c r="G15">
-        <v>2.1746685</v>
+        <v>0.0765465</v>
       </c>
       <c r="H15">
-        <v>4.349337</v>
+        <v>0.153093</v>
       </c>
       <c r="I15">
-        <v>0.2953388560083503</v>
+        <v>0.02438381853404661</v>
       </c>
       <c r="J15">
-        <v>0.2548878981582274</v>
+        <v>0.02357153942893602</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>12.591557</v>
       </c>
       <c r="O15">
-        <v>0.1890067455656493</v>
+        <v>0.1643286509069703</v>
       </c>
       <c r="P15">
-        <v>0.2079708765783703</v>
+        <v>0.1771660397279274</v>
       </c>
       <c r="Q15">
-        <v>9.127487457951501</v>
+        <v>0.3212798726335001</v>
       </c>
       <c r="R15">
-        <v>54.76492474770901</v>
+        <v>1.927679235801</v>
       </c>
       <c r="S15">
-        <v>0.05582103601322019</v>
+        <v>0.004006960003660257</v>
       </c>
       <c r="T15">
-        <v>0.05300925960918493</v>
+        <v>0.004176076290915287</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1411,16 +1411,16 @@
         <v>0.5</v>
       </c>
       <c r="G16">
-        <v>2.1746685</v>
+        <v>0.0765465</v>
       </c>
       <c r="H16">
-        <v>4.349337</v>
+        <v>0.153093</v>
       </c>
       <c r="I16">
-        <v>0.2953388560083503</v>
+        <v>0.02438381853404661</v>
       </c>
       <c r="J16">
-        <v>0.2548878981582274</v>
+        <v>0.02357153942893602</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.727411333333333</v>
+        <v>6.177416000000001</v>
       </c>
       <c r="N16">
-        <v>14.182234</v>
+        <v>18.532248</v>
       </c>
       <c r="O16">
-        <v>0.2128837516433035</v>
+        <v>0.241858835417526</v>
       </c>
       <c r="P16">
-        <v>0.234243599645347</v>
+        <v>0.2607528985824235</v>
       </c>
       <c r="Q16">
-        <v>10.280552513143</v>
+        <v>0.4728595738440001</v>
       </c>
       <c r="R16">
-        <v>61.683315078858</v>
+        <v>2.837157443064001</v>
       </c>
       <c r="S16">
-        <v>0.06287284367309902</v>
+        <v>0.0058974419536768</v>
       </c>
       <c r="T16">
-        <v>0.0597058587706198</v>
+        <v>0.006146347230144951</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>0.5</v>
       </c>
       <c r="G17">
-        <v>2.1746685</v>
+        <v>0.0765465</v>
       </c>
       <c r="H17">
-        <v>4.349337</v>
+        <v>0.153093</v>
       </c>
       <c r="I17">
-        <v>0.2953388560083503</v>
+        <v>0.02438381853404661</v>
       </c>
       <c r="J17">
-        <v>0.2548878981582274</v>
+        <v>0.02357153942893602</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.058124</v>
+        <v>2.4065245</v>
       </c>
       <c r="N17">
-        <v>6.116248000000001</v>
+        <v>4.813049</v>
       </c>
       <c r="O17">
-        <v>0.1377127700989335</v>
+        <v>0.09422049817816125</v>
       </c>
       <c r="P17">
-        <v>0.1010201882047394</v>
+        <v>0.06772068222750066</v>
       </c>
       <c r="Q17">
-        <v>6.650405931894001</v>
+        <v>0.18421102763925</v>
       </c>
       <c r="R17">
-        <v>26.601623727576</v>
+        <v>0.7368441105570001</v>
       </c>
       <c r="S17">
-        <v>0.04067193197875996</v>
+        <v>0.002297455529763753</v>
       </c>
       <c r="T17">
-        <v>0.02574882344305459</v>
+        <v>0.001596280731279979</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
         <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.5</v>
       </c>
       <c r="G18">
-        <v>2.1746685</v>
+        <v>0.0765465</v>
       </c>
       <c r="H18">
-        <v>4.349337</v>
+        <v>0.153093</v>
       </c>
       <c r="I18">
-        <v>0.2953388560083503</v>
+        <v>0.02438381853404661</v>
       </c>
       <c r="J18">
-        <v>0.2548878981582274</v>
+        <v>0.02357153942893602</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.237791666666666</v>
+        <v>6.172389333333332</v>
       </c>
       <c r="N18">
-        <v>6.713374999999999</v>
+        <v>18.517168</v>
       </c>
       <c r="O18">
-        <v>0.1007717441545784</v>
+        <v>0.2416620308400081</v>
       </c>
       <c r="P18">
-        <v>0.1108827513189446</v>
+        <v>0.2605407195898574</v>
       </c>
       <c r="Q18">
-        <v>4.8664550470625</v>
+        <v>0.4724748001039999</v>
       </c>
       <c r="R18">
-        <v>29.198730282375</v>
+        <v>2.834848800624</v>
       </c>
       <c r="S18">
-        <v>0.02976181163657933</v>
+        <v>0.005892643106571933</v>
       </c>
       <c r="T18">
-        <v>0.02826267142568721</v>
+        <v>0.006141345844655689</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.5</v>
       </c>
       <c r="G19">
-        <v>2.1746685</v>
+        <v>0.0765465</v>
       </c>
       <c r="H19">
-        <v>4.349337</v>
+        <v>0.153093</v>
       </c>
       <c r="I19">
-        <v>0.2953388560083503</v>
+        <v>0.02438381853404661</v>
       </c>
       <c r="J19">
-        <v>0.2548878981582274</v>
+        <v>0.02357153942893602</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,772 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.969342333333334</v>
+        <v>3.442255333333333</v>
       </c>
       <c r="N19">
-        <v>14.908027</v>
+        <v>10.326766</v>
       </c>
       <c r="O19">
-        <v>0.2237783354413461</v>
+        <v>0.134771539771608</v>
       </c>
       <c r="P19">
-        <v>0.2462312995322192</v>
+        <v>0.1452999208451354</v>
       </c>
       <c r="Q19">
-        <v>10.8066722380165</v>
+        <v>0.263492597873</v>
       </c>
       <c r="R19">
-        <v>64.84003342809901</v>
+        <v>1.580955587238</v>
       </c>
       <c r="S19">
-        <v>0.06609043758870002</v>
+        <v>0.003286244769344935</v>
       </c>
       <c r="T19">
-        <v>0.06276137839853628</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>2.063518333333333</v>
-      </c>
-      <c r="H20">
-        <v>6.190555</v>
-      </c>
-      <c r="I20">
-        <v>0.2802436987149647</v>
-      </c>
-      <c r="J20">
-        <v>0.362790363768755</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>3.016684</v>
-      </c>
-      <c r="N20">
-        <v>6.033367999999999</v>
-      </c>
-      <c r="O20">
-        <v>0.1358466530961894</v>
-      </c>
-      <c r="P20">
-        <v>0.09965128472037957</v>
-      </c>
-      <c r="Q20">
-        <v>6.224982739873332</v>
-      </c>
-      <c r="R20">
-        <v>37.34989643924</v>
-      </c>
-      <c r="S20">
-        <v>0.03807016852172482</v>
-      </c>
-      <c r="T20">
-        <v>0.03615252583373028</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>2.063518333333333</v>
-      </c>
-      <c r="H21">
-        <v>6.190555</v>
-      </c>
-      <c r="I21">
-        <v>0.2802436987149647</v>
-      </c>
-      <c r="J21">
-        <v>0.362790363768755</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>4.197185666666667</v>
-      </c>
-      <c r="N21">
-        <v>12.591557</v>
-      </c>
-      <c r="O21">
-        <v>0.1890067455656493</v>
-      </c>
-      <c r="P21">
-        <v>0.2079708765783703</v>
-      </c>
-      <c r="Q21">
-        <v>8.660969571570556</v>
-      </c>
-      <c r="R21">
-        <v>77.94872614413501</v>
-      </c>
-      <c r="S21">
-        <v>0.05296794945939581</v>
-      </c>
-      <c r="T21">
-        <v>0.0754498299671738</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>2.063518333333333</v>
-      </c>
-      <c r="H22">
-        <v>6.190555</v>
-      </c>
-      <c r="I22">
-        <v>0.2802436987149647</v>
-      </c>
-      <c r="J22">
-        <v>0.362790363768755</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>4.727411333333333</v>
-      </c>
-      <c r="N22">
-        <v>14.182234</v>
-      </c>
-      <c r="O22">
-        <v>0.2128837516433035</v>
-      </c>
-      <c r="P22">
-        <v>0.234243599645347</v>
-      </c>
-      <c r="Q22">
-        <v>9.755099955541111</v>
-      </c>
-      <c r="R22">
-        <v>87.79589959987</v>
-      </c>
-      <c r="S22">
-        <v>0.05965932995683733</v>
-      </c>
-      <c r="T22">
-        <v>0.08498132072583804</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>2.063518333333333</v>
-      </c>
-      <c r="H23">
-        <v>6.190555</v>
-      </c>
-      <c r="I23">
-        <v>0.2802436987149647</v>
-      </c>
-      <c r="J23">
-        <v>0.362790363768755</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>3.058124</v>
-      </c>
-      <c r="N23">
-        <v>6.116248000000001</v>
-      </c>
-      <c r="O23">
-        <v>0.1377127700989335</v>
-      </c>
-      <c r="P23">
-        <v>0.1010201882047394</v>
-      </c>
-      <c r="Q23">
-        <v>6.310494939606667</v>
-      </c>
-      <c r="R23">
-        <v>37.86296963764</v>
-      </c>
-      <c r="S23">
-        <v>0.03859313605280872</v>
-      </c>
-      <c r="T23">
-        <v>0.03664915082678551</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>2.063518333333333</v>
-      </c>
-      <c r="H24">
-        <v>6.190555</v>
-      </c>
-      <c r="I24">
-        <v>0.2802436987149647</v>
-      </c>
-      <c r="J24">
-        <v>0.362790363768755</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>2.237791666666666</v>
-      </c>
-      <c r="N24">
-        <v>6.713374999999999</v>
-      </c>
-      <c r="O24">
-        <v>0.1007717441545784</v>
-      </c>
-      <c r="P24">
-        <v>0.1108827513189446</v>
-      </c>
-      <c r="Q24">
-        <v>4.617724130347221</v>
-      </c>
-      <c r="R24">
-        <v>41.55951717312499</v>
-      </c>
-      <c r="S24">
-        <v>0.02824064630783717</v>
-      </c>
-      <c r="T24">
-        <v>0.04022719368668031</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>2.063518333333333</v>
-      </c>
-      <c r="H25">
-        <v>6.190555</v>
-      </c>
-      <c r="I25">
-        <v>0.2802436987149647</v>
-      </c>
-      <c r="J25">
-        <v>0.362790363768755</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>4.969342333333334</v>
-      </c>
-      <c r="N25">
-        <v>14.908027</v>
-      </c>
-      <c r="O25">
-        <v>0.2237783354413461</v>
-      </c>
-      <c r="P25">
-        <v>0.2462312995322192</v>
-      </c>
-      <c r="Q25">
-        <v>10.25432900944278</v>
-      </c>
-      <c r="R25">
-        <v>92.288961084985</v>
-      </c>
-      <c r="S25">
-        <v>0.0627124684163609</v>
-      </c>
-      <c r="T25">
-        <v>0.08933034272854708</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.05725033333333333</v>
-      </c>
-      <c r="H26">
-        <v>0.171751</v>
-      </c>
-      <c r="I26">
-        <v>0.007775092136002976</v>
-      </c>
-      <c r="J26">
-        <v>0.01006527003922063</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>3.016684</v>
-      </c>
-      <c r="N26">
-        <v>6.033367999999999</v>
-      </c>
-      <c r="O26">
-        <v>0.1358466530961894</v>
-      </c>
-      <c r="P26">
-        <v>0.09965128472037957</v>
-      </c>
-      <c r="Q26">
-        <v>0.1727061645613333</v>
-      </c>
-      <c r="R26">
-        <v>1.036236987368</v>
-      </c>
-      <c r="S26">
-        <v>0.001056220244190506</v>
-      </c>
-      <c r="T26">
-        <v>0.001003017090465881</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G27">
-        <v>0.05725033333333333</v>
-      </c>
-      <c r="H27">
-        <v>0.171751</v>
-      </c>
-      <c r="I27">
-        <v>0.007775092136002976</v>
-      </c>
-      <c r="J27">
-        <v>0.01006527003922063</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>4.197185666666667</v>
-      </c>
-      <c r="N27">
-        <v>12.591557</v>
-      </c>
-      <c r="O27">
-        <v>0.1890067455656493</v>
-      </c>
-      <c r="P27">
-        <v>0.2079708765783703</v>
-      </c>
-      <c r="Q27">
-        <v>0.2402902784785556</v>
-      </c>
-      <c r="R27">
-        <v>2.162612506307</v>
-      </c>
-      <c r="S27">
-        <v>0.001469544861098995</v>
-      </c>
-      <c r="T27">
-        <v>0.002093283033054721</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G28">
-        <v>0.05725033333333333</v>
-      </c>
-      <c r="H28">
-        <v>0.171751</v>
-      </c>
-      <c r="I28">
-        <v>0.007775092136002976</v>
-      </c>
-      <c r="J28">
-        <v>0.01006527003922063</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>4.727411333333333</v>
-      </c>
-      <c r="N28">
-        <v>14.182234</v>
-      </c>
-      <c r="O28">
-        <v>0.2128837516433035</v>
-      </c>
-      <c r="P28">
-        <v>0.234243599645347</v>
-      </c>
-      <c r="Q28">
-        <v>0.2706458746371111</v>
-      </c>
-      <c r="R28">
-        <v>2.435812871734</v>
-      </c>
-      <c r="S28">
-        <v>0.00165519078328466</v>
-      </c>
-      <c r="T28">
-        <v>0.002357725085389502</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G29">
-        <v>0.05725033333333333</v>
-      </c>
-      <c r="H29">
-        <v>0.171751</v>
-      </c>
-      <c r="I29">
-        <v>0.007775092136002976</v>
-      </c>
-      <c r="J29">
-        <v>0.01006527003922063</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>3.058124</v>
-      </c>
-      <c r="N29">
-        <v>6.116248000000001</v>
-      </c>
-      <c r="O29">
-        <v>0.1377127700989335</v>
-      </c>
-      <c r="P29">
-        <v>0.1010201882047394</v>
-      </c>
-      <c r="Q29">
-        <v>0.1750786183746667</v>
-      </c>
-      <c r="R29">
-        <v>1.050471710248</v>
-      </c>
-      <c r="S29">
-        <v>0.001070729475823404</v>
-      </c>
-      <c r="T29">
-        <v>0.001016795473693593</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G30">
-        <v>0.05725033333333333</v>
-      </c>
-      <c r="H30">
-        <v>0.171751</v>
-      </c>
-      <c r="I30">
-        <v>0.007775092136002976</v>
-      </c>
-      <c r="J30">
-        <v>0.01006527003922063</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>2.237791666666666</v>
-      </c>
-      <c r="N30">
-        <v>6.713374999999999</v>
-      </c>
-      <c r="O30">
-        <v>0.1007717441545784</v>
-      </c>
-      <c r="P30">
-        <v>0.1108827513189446</v>
-      </c>
-      <c r="Q30">
-        <v>0.1281143188472222</v>
-      </c>
-      <c r="R30">
-        <v>1.153028869625</v>
-      </c>
-      <c r="S30">
-        <v>0.0007835095955075661</v>
-      </c>
-      <c r="T30">
-        <v>0.001116064834716924</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G31">
-        <v>0.05725033333333333</v>
-      </c>
-      <c r="H31">
-        <v>0.171751</v>
-      </c>
-      <c r="I31">
-        <v>0.007775092136002976</v>
-      </c>
-      <c r="J31">
-        <v>0.01006527003922063</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>4.969342333333334</v>
-      </c>
-      <c r="N31">
-        <v>14.908027</v>
-      </c>
-      <c r="O31">
-        <v>0.2237783354413461</v>
-      </c>
-      <c r="P31">
-        <v>0.2462312995322192</v>
-      </c>
-      <c r="Q31">
-        <v>0.2844965050307778</v>
-      </c>
-      <c r="R31">
-        <v>2.560468545277</v>
-      </c>
-      <c r="S31">
-        <v>0.001739897176097846</v>
-      </c>
-      <c r="T31">
-        <v>0.002478384521900006</v>
+        <v>0.003424942813222392</v>
       </c>
     </row>
   </sheetData>
